--- a/data/000792.SZ-20210824.xlsx
+++ b/data/000792.SZ-20210824.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -492,7 +492,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -534,7 +534,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -576,7 +576,7 @@
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -618,7 +618,7 @@
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -660,7 +660,7 @@
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -702,7 +702,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -744,7 +744,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -786,7 +786,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -828,7 +828,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -870,7 +870,7 @@
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -908,6 +908,48 @@
       </c>
       <c r="L11" t="n">
         <v>15744340.523</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000792.SZ</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>20210824</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>42.8</v>
+      </c>
+      <c r="E12" t="n">
+        <v>44.83</v>
+      </c>
+      <c r="F12" t="n">
+        <v>42.38</v>
+      </c>
+      <c r="G12" t="n">
+        <v>42.88</v>
+      </c>
+      <c r="H12" t="n">
+        <v>43.76</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-0.88</v>
+      </c>
+      <c r="J12" t="n">
+        <v>-2.011</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2227105.04</v>
+      </c>
+      <c r="L12" t="n">
+        <v>9656360.839</v>
       </c>
     </row>
   </sheetData>
